--- a/com.absli.auto/src/main/java/com/absli/testdata/Master Policy Maker - Test Data.xlsx
+++ b/com.absli.auto/src/main/java/com/absli/testdata/Master Policy Maker - Test Data.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gokulnath\eclipse-workspace\com.absli.auto\src\main\java\com\absli\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gokulnath\git\com.absli.auto\com.absli.auto\src\main\java\com\absli\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TC_MPM_001" sheetId="1" r:id="rId1"/>
     <sheet name="TC_MPM_002" sheetId="2" r:id="rId2"/>
     <sheet name="TC_MPM_003" sheetId="3" r:id="rId3"/>
+    <sheet name="TC_MPM_004" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="84">
   <si>
     <t>Client Name</t>
   </si>
@@ -413,6 +414,222 @@
   </si>
   <si>
     <t>Flat Sum Assured</t>
+  </si>
+  <si>
+    <t>Graded Cover</t>
+  </si>
+  <si>
+    <t>Grade 1</t>
+  </si>
+  <si>
+    <t>Grade 3</t>
+  </si>
+  <si>
+    <t>Grade 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sum Assured
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grade 1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Free Cover Limit (Sum Assured)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grade 1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minimum Cap
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grade 1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maximum Cap 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grade 1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sum Assured
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grade 2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Free Cover Limit (Sum Assured)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grade 2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minimum Cap
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grade 2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maximum Cap 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grade 2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sum Assured
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grade 3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Free Cover Limit (Sum Assured)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grade 3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minimum Cap
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grade 3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maximum Cap 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grade 3)</t>
+    </r>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>3000000</t>
   </si>
 </sst>
 </file>
@@ -823,7 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
@@ -1302,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,4 +1768,333 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM6" sqref="AM6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="24" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="19.7109375" customWidth="1"/>
+    <col min="23" max="23" width="31.28515625" customWidth="1"/>
+    <col min="26" max="26" width="24" customWidth="1"/>
+    <col min="27" max="27" width="20.5703125" customWidth="1"/>
+    <col min="28" max="28" width="17" customWidth="1"/>
+    <col min="29" max="29" width="52.7109375" customWidth="1"/>
+    <col min="30" max="30" width="46.85546875" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" customWidth="1"/>
+    <col min="32" max="32" width="20.28515625" customWidth="1"/>
+    <col min="33" max="33" width="17.5703125" customWidth="1"/>
+    <col min="34" max="34" width="14.5703125" customWidth="1"/>
+    <col min="35" max="35" width="17.28515625" customWidth="1"/>
+    <col min="37" max="37" width="18.85546875" customWidth="1"/>
+    <col min="38" max="38" width="26.28515625" customWidth="1"/>
+    <col min="39" max="39" width="20.28515625" customWidth="1"/>
+    <col min="40" max="40" width="16.5703125" customWidth="1"/>
+    <col min="42" max="42" width="20.7109375" customWidth="1"/>
+    <col min="43" max="43" width="26" customWidth="1"/>
+    <col min="44" max="44" width="16" customWidth="1"/>
+    <col min="45" max="45" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3">
+        <v>132413</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9489466321</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="7">
+        <v>45323</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/com.absli.auto/src/main/java/com/absli/testdata/Master Policy Maker - Test Data.xlsx
+++ b/com.absli.auto/src/main/java/com/absli/testdata/Master Policy Maker - Test Data.xlsx
@@ -16,6 +16,9 @@
     <sheet name="TC_MPM_002" sheetId="2" r:id="rId2"/>
     <sheet name="TC_MPM_003" sheetId="3" r:id="rId3"/>
     <sheet name="TC_MPM_004" sheetId="4" r:id="rId4"/>
+    <sheet name="TC_MPM_005" sheetId="5" r:id="rId5"/>
+    <sheet name="TC_MPM_006" sheetId="6" r:id="rId6"/>
+    <sheet name="TC_MPM_007" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="105">
   <si>
     <t>Client Name</t>
   </si>
@@ -630,6 +633,109 @@
   </si>
   <si>
     <t>3000000</t>
+  </si>
+  <si>
+    <t>Absli123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Grade </t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Cover Limit (Sum Assured)
+</t>
+  </si>
+  <si>
+    <t>Max Sum Assured</t>
+  </si>
+  <si>
+    <t>Retirement Age</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Future Service Gratuity Amount</t>
+  </si>
+  <si>
+    <t>GPS Rider - Accelerated Terminal Illness Rider</t>
+  </si>
+  <si>
+    <t>Rider</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>Percentage of Base Benefit</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Multiples Of Salary
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grade 2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Multiples Of Salary
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grade 3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Multiples Of Salary
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Grade 1)</t>
+    </r>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Graded Cover Salary Multiple</t>
   </si>
 </sst>
 </file>
@@ -1040,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1170,8 @@
     <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" customWidth="1"/>
     <col min="22" max="22" width="20.85546875" customWidth="1"/>
     <col min="23" max="23" width="27" customWidth="1"/>
     <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -1172,12 +1279,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="3">
-        <v>132413</v>
+        <v>131211</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
@@ -1186,7 +1293,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3">
         <v>9489466321</v>
@@ -1275,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AD2" activeCellId="1" sqref="AD1 AD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM6" sqref="AM6"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,22 +1912,23 @@
     <col min="28" max="28" width="17" customWidth="1"/>
     <col min="29" max="29" width="52.7109375" customWidth="1"/>
     <col min="30" max="30" width="46.85546875" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" customWidth="1"/>
-    <col min="32" max="32" width="20.28515625" customWidth="1"/>
-    <col min="33" max="33" width="17.5703125" customWidth="1"/>
-    <col min="34" max="34" width="14.5703125" customWidth="1"/>
-    <col min="35" max="35" width="17.28515625" customWidth="1"/>
-    <col min="37" max="37" width="18.85546875" customWidth="1"/>
-    <col min="38" max="38" width="26.28515625" customWidth="1"/>
-    <col min="39" max="39" width="20.28515625" customWidth="1"/>
-    <col min="40" max="40" width="16.5703125" customWidth="1"/>
-    <col min="42" max="42" width="20.7109375" customWidth="1"/>
-    <col min="43" max="43" width="26" customWidth="1"/>
-    <col min="44" max="44" width="16" customWidth="1"/>
-    <col min="45" max="45" width="19" customWidth="1"/>
+    <col min="31" max="31" width="19.85546875" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" customWidth="1"/>
+    <col min="33" max="33" width="20.28515625" customWidth="1"/>
+    <col min="34" max="34" width="17.5703125" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" customWidth="1"/>
+    <col min="36" max="36" width="17.28515625" customWidth="1"/>
+    <col min="38" max="38" width="18.85546875" customWidth="1"/>
+    <col min="39" max="39" width="26.28515625" customWidth="1"/>
+    <col min="40" max="40" width="20.28515625" customWidth="1"/>
+    <col min="41" max="41" width="16.5703125" customWidth="1"/>
+    <col min="43" max="43" width="20.7109375" customWidth="1"/>
+    <col min="44" max="44" width="26" customWidth="1"/>
+    <col min="45" max="45" width="16" customWidth="1"/>
+    <col min="46" max="46" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1912,57 +2020,60 @@
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="3">
-        <v>132413</v>
+        <v>132411</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
@@ -2044,49 +2155,52 @@
       <c r="AD2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2097,4 +2211,883 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="20" customWidth="1"/>
+    <col min="23" max="23" width="24" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" customWidth="1"/>
+    <col min="25" max="25" width="17" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" customWidth="1"/>
+    <col min="27" max="27" width="18.42578125" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" customWidth="1"/>
+    <col min="29" max="29" width="58.5703125" customWidth="1"/>
+    <col min="30" max="30" width="48.42578125" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" customWidth="1"/>
+    <col min="32" max="32" width="19.5703125" customWidth="1"/>
+    <col min="33" max="33" width="21.7109375" customWidth="1"/>
+    <col min="34" max="34" width="17" customWidth="1"/>
+    <col min="35" max="35" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3">
+        <v>132411</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9489466321</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="7">
+        <v>45323</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="23.7109375" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" customWidth="1"/>
+    <col min="26" max="26" width="23.140625" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" customWidth="1"/>
+    <col min="28" max="28" width="27.28515625" customWidth="1"/>
+    <col min="29" max="29" width="47.5703125" customWidth="1"/>
+    <col min="30" max="30" width="36.28515625" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" customWidth="1"/>
+    <col min="32" max="32" width="54" customWidth="1"/>
+    <col min="33" max="34" width="34.85546875" customWidth="1"/>
+    <col min="35" max="35" width="19.140625" customWidth="1"/>
+    <col min="36" max="36" width="17.5703125" customWidth="1"/>
+    <col min="37" max="37" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3">
+        <v>131211</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9489466321</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="7">
+        <v>45323</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT2"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" customWidth="1"/>
+    <col min="21" max="21" width="25.85546875" customWidth="1"/>
+    <col min="22" max="22" width="26.42578125" customWidth="1"/>
+    <col min="23" max="23" width="31.140625" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" customWidth="1"/>
+    <col min="26" max="26" width="24" customWidth="1"/>
+    <col min="27" max="27" width="21" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" customWidth="1"/>
+    <col min="29" max="29" width="41.5703125" customWidth="1"/>
+    <col min="30" max="30" width="34.5703125" customWidth="1"/>
+    <col min="31" max="31" width="22.7109375" customWidth="1"/>
+    <col min="32" max="32" width="15.42578125" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" customWidth="1"/>
+    <col min="34" max="34" width="21.5703125" customWidth="1"/>
+    <col min="35" max="35" width="16.42578125" customWidth="1"/>
+    <col min="36" max="36" width="16.28515625" customWidth="1"/>
+    <col min="37" max="37" width="16.85546875" customWidth="1"/>
+    <col min="38" max="38" width="19.140625" customWidth="1"/>
+    <col min="39" max="39" width="15.85546875" customWidth="1"/>
+    <col min="40" max="40" width="14.28515625" customWidth="1"/>
+    <col min="41" max="41" width="14" customWidth="1"/>
+    <col min="42" max="42" width="12.85546875" customWidth="1"/>
+    <col min="43" max="43" width="18.28515625" customWidth="1"/>
+    <col min="44" max="44" width="20.140625" customWidth="1"/>
+    <col min="45" max="45" width="13" customWidth="1"/>
+    <col min="46" max="46" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3">
+        <v>132411</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9489466321</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="7">
+        <v>45323</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.absli.auto/src/main/java/com/absli/testdata/Master Policy Maker - Test Data.xlsx
+++ b/com.absli.auto/src/main/java/com/absli/testdata/Master Policy Maker - Test Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="TC_MPM_001" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="107">
   <si>
     <t>Client Name</t>
   </si>
@@ -320,9 +320,6 @@
     <t>Free Cover Limit (Sum Assured)</t>
   </si>
   <si>
-    <t>absli-101</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -392,9 +389,6 @@
     <t>1000000</t>
   </si>
   <si>
-    <t>absli-101-GST</t>
-  </si>
-  <si>
     <t>Multiple Of Salary</t>
   </si>
   <si>
@@ -411,9 +405,6 @@
   </si>
   <si>
     <t>1000</t>
-  </si>
-  <si>
-    <t>grade-001</t>
   </si>
   <si>
     <t>Flat Sum Assured</t>
@@ -736,6 +727,21 @@
   </si>
   <si>
     <t>Graded Cover Salary Multiple</t>
+  </si>
+  <si>
+    <t>Absli-Auto-001</t>
+  </si>
+  <si>
+    <t>Absli001</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Absli-Auto-GST-001</t>
+  </si>
+  <si>
+    <t>Absli-Grade-001</t>
   </si>
 </sst>
 </file>
@@ -837,7 +843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -863,6 +869,7 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1146,13 +1153,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -1280,70 +1287,70 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="3">
+        <v>122402</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3">
-        <v>131211</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F2" s="3">
         <v>9489466321</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="J2" s="7">
         <v>45323</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="X2" s="3">
         <v>17</v>
@@ -1352,22 +1359,22 @@
         <v>65</v>
       </c>
       <c r="Z2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1383,12 +1390,12 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" customWidth="1"/>
@@ -1514,77 +1521,77 @@
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>55</v>
+      <c r="A2" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B2" s="3">
-        <v>132413</v>
+        <v>132402</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F2" s="3">
         <v>9489466321</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="J2" s="7">
         <v>45323</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="X2" s="3">
         <v>17</v>
@@ -1593,25 +1600,25 @@
         <v>65</v>
       </c>
       <c r="Z2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="AD2" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1626,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1645,7 @@
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
@@ -1757,83 +1764,83 @@
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>62</v>
+    <row r="2" spans="1:34" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B2" s="3">
-        <v>132413</v>
+        <v>132412</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F2" s="3">
         <v>9489466321</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="J2" s="7">
         <v>45323</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="X2" s="3">
         <v>17</v>
@@ -1842,31 +1849,31 @@
         <v>65</v>
       </c>
       <c r="Z2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="AD2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AE2" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="AF2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1881,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,7 +1900,7 @@
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="27.5703125" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
@@ -2020,119 +2027,119 @@
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3">
-        <v>132411</v>
+        <v>132402</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F2" s="3">
         <v>9489466321</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="J2" s="7">
         <v>45323</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="X2" s="3">
         <v>17</v>
@@ -2141,67 +2148,67 @@
         <v>65</v>
       </c>
       <c r="Z2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="AD2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AE2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AK2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="AR2" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2217,13 +2224,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
@@ -2348,86 +2355,86 @@
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>62</v>
+      <c r="A2" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B2" s="3">
-        <v>132411</v>
+        <v>132422</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F2" s="3">
         <v>9489466321</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="J2" s="7">
         <v>45323</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="X2" s="3">
         <v>17</v>
@@ -2436,34 +2443,34 @@
         <v>65</v>
       </c>
       <c r="Z2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="AD2" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2478,13 +2485,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
@@ -2622,83 +2629,83 @@
         <v>29</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="3">
+        <v>131232</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3">
-        <v>131211</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F2" s="3">
         <v>9489466321</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="J2" s="7">
         <v>45323</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="X2" s="3">
         <v>17</v>
@@ -2707,40 +2714,40 @@
         <v>65</v>
       </c>
       <c r="Z2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AE2" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="AF2" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AG2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AH2" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="AI2" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2755,13 +2762,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
@@ -2808,7 +2815,7 @@
     <col min="46" max="46" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2900,119 +2907,119 @@
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="AT1" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3">
-        <v>132411</v>
+        <v>132452</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F2" s="3">
         <v>9489466321</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" s="7">
         <v>45323</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="X2" s="3">
         <v>17</v>
@@ -3021,67 +3028,67 @@
         <v>65</v>
       </c>
       <c r="Z2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="AD2" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AH2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="AI2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="AK2" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/com.absli.auto/src/main/java/com/absli/testdata/Master Policy Maker - Test Data.xlsx
+++ b/com.absli.auto/src/main/java/com/absli/testdata/Master Policy Maker - Test Data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="109">
   <si>
     <t>Client Name</t>
   </si>
@@ -651,9 +651,6 @@
     <t>Future Service Gratuity Amount</t>
   </si>
   <si>
-    <t>GPS Rider - Accelerated Terminal Illness Rider</t>
-  </si>
-  <si>
     <t>Rider</t>
   </si>
   <si>
@@ -729,19 +726,28 @@
     <t>Graded Cover Salary Multiple</t>
   </si>
   <si>
+    <t>Absli001</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Absli-Auto-GST-001</t>
+  </si>
+  <si>
+    <t>Absli-Grade-001</t>
+  </si>
+  <si>
+    <t>GPS OYRT_V08</t>
+  </si>
+  <si>
+    <t>GPS Rider - Accelerated Terminal Illness Rider</t>
+  </si>
+  <si>
+    <t>Absli-Demo-001</t>
+  </si>
+  <si>
     <t>Absli-Auto-001</t>
-  </si>
-  <si>
-    <t>Absli001</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Absli-Auto-GST-001</t>
-  </si>
-  <si>
-    <t>Absli-Grade-001</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1160,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,10 +1294,10 @@
     </row>
     <row r="2" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3">
-        <v>122402</v>
+        <v>232301</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1300,7 +1306,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F2" s="3">
         <v>9489466321</v>
@@ -1309,7 +1315,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>36</v>
@@ -1390,7 +1396,7 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,10 +1535,10 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3">
-        <v>132402</v>
+        <v>200002</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1550,7 +1556,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>36</v>
@@ -1634,7 +1640,7 @@
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,10 +1784,10 @@
     </row>
     <row r="2" spans="1:34" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3">
-        <v>132412</v>
+        <v>300001</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -1889,7 +1895,7 @@
   <dimension ref="A1:AT2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,10 +2083,10 @@
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3">
-        <v>132402</v>
+        <v>400001</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2225,7 +2231,7 @@
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,10 +2378,10 @@
     </row>
     <row r="2" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3">
-        <v>132422</v>
+        <v>500001</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2486,12 +2492,12 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
@@ -2629,7 +2635,7 @@
         <v>29</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>30</v>
@@ -2643,10 +2649,10 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B2" s="3">
-        <v>131232</v>
+        <v>600001</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2679,7 +2685,7 @@
         <v>38</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>40</v>
@@ -2732,16 +2738,16 @@
         <v>50</v>
       </c>
       <c r="AF2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="AJ2" s="6" t="s">
         <v>59</v>
@@ -2763,7 +2769,7 @@
   <dimension ref="A1:AT2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,7 +2919,7 @@
         <v>62</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>66</v>
@@ -2928,7 +2934,7 @@
         <v>64</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>70</v>
@@ -2943,7 +2949,7 @@
         <v>63</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>74</v>
@@ -2957,10 +2963,10 @@
     </row>
     <row r="2" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3">
-        <v>132452</v>
+        <v>700001</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2978,7 +2984,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>36</v>
@@ -3040,7 +3046,7 @@
         <v>48</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE2" s="6" t="s">
         <v>83</v>
@@ -3052,13 +3058,13 @@
         <v>56</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="6" t="s">
         <v>59</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK2" s="4" t="s">
         <v>64</v>
@@ -3067,10 +3073,10 @@
         <v>38</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO2" s="6" t="s">
         <v>79</v>
@@ -3079,13 +3085,13 @@
         <v>63</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AR2" s="6" t="s">
         <v>79</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>79</v>
